--- a/data/trans_dic/P16A20-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A20-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001395611525019213</v>
+        <v>0.001384126230665808</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0008852257012947134</v>
+        <v>0.0008851541956641893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001010739232181224</v>
+        <v>0.001012981824017161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007822258035248691</v>
+        <v>0.007006131927000654</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02413412667826421</v>
+        <v>0.02422010535098282</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03085912835019983</v>
+        <v>0.02962465045348682</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06422535685637966</v>
+        <v>0.06465395721553063</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0005958104656605618</v>
+        <v>0.0006859853297268258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01379419019695354</v>
+        <v>0.01364584149048179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01798981412773512</v>
+        <v>0.01830513169212414</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04142827368996711</v>
+        <v>0.04131363936236748</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01301019721326142</v>
+        <v>0.01449420951445454</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.007589021841354081</v>
+        <v>0.007947912981451997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01049127178569301</v>
+        <v>0.009931195406161289</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04327435597225984</v>
+        <v>0.04325991037689276</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.005291802926668261</v>
+        <v>0.004993073857455423</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04618362988510568</v>
+        <v>0.04690185879216488</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05473912678625198</v>
+        <v>0.05334727646153584</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1011886829567291</v>
+        <v>0.1008597714202585</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.00559325443450783</v>
+        <v>0.006024271804347446</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02599440426630772</v>
+        <v>0.02625161943761979</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03050250572144659</v>
+        <v>0.03101025876550924</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06636849368365852</v>
+        <v>0.06678538308774055</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.05027812347243649</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07652847426465338</v>
+        <v>0.07652847426465337</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.004999447513968745</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0009241903957861444</v>
+        <v>0.0009136843816054556</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0009707157374364778</v>
+        <v>0.0009731429586098566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001027285806400146</v>
+        <v>0.001114919954639552</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004352624112145226</v>
+        <v>0.004532161432110171</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002682178774571175</v>
+        <v>0.002718200157973192</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02020322309584185</v>
+        <v>0.02160772074475717</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03735003440443003</v>
+        <v>0.03746076234594813</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06453112313672502</v>
+        <v>0.06361276500362818</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002725113119121326</v>
+        <v>0.002770818873951017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01268105122863669</v>
+        <v>0.01259109647280399</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02152354194749909</v>
+        <v>0.02139297092158366</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03827043475741644</v>
+        <v>0.03811274542095878</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008685687753706671</v>
+        <v>0.009052526724253754</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.009485914511653953</v>
+        <v>0.008493861855847388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01073237881736779</v>
+        <v>0.01076043802299595</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.015635132887582</v>
+        <v>0.01559462546318012</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01223676497433654</v>
+        <v>0.01283302857437168</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04455961735884535</v>
+        <v>0.04404800171797008</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0674315164206869</v>
+        <v>0.06772013975707929</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09243203180750952</v>
+        <v>0.09032592599871306</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008830174040171748</v>
+        <v>0.008499600879435562</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02451518042631121</v>
+        <v>0.02499352363050716</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03655464421939831</v>
+        <v>0.03729710494076891</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05313037969066451</v>
+        <v>0.05323141111872474</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.003544263617847377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01576962644736509</v>
+        <v>0.01576962644736508</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01013496280636959</v>
@@ -957,7 +957,7 @@
         <v>0.03396148296827026</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09059103474717323</v>
+        <v>0.09059103474717324</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.007058631667367656</v>
@@ -969,7 +969,7 @@
         <v>0.01825030634769379</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05319433179132493</v>
+        <v>0.05319433179132494</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001543484854449846</v>
+        <v>0.001544282198337524</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001121047837534653</v>
+        <v>0.001134668283711722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00948934570593654</v>
+        <v>0.00982850574586413</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004827824595780079</v>
+        <v>0.00493921884962652</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02932058964207002</v>
+        <v>0.02953794543916929</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.021819946613537</v>
+        <v>0.0223484693696692</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07644693686550973</v>
+        <v>0.07605013860574376</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004144296707023703</v>
+        <v>0.00422470828054955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01506604027309647</v>
+        <v>0.01527104203963862</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01250923736860804</v>
+        <v>0.01212639054495136</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04493404689267093</v>
+        <v>0.04547846359271741</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.009414891153513004</v>
+        <v>0.009409488167413865</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.007760803858307496</v>
+        <v>0.006788291752053072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.009851843880068384</v>
+        <v>0.01017107774358698</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0244708639537145</v>
+        <v>0.02441377418836306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01788262743853255</v>
+        <v>0.01875549525522889</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05698622162760783</v>
+        <v>0.05776367257545321</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04724385606397289</v>
+        <v>0.05008304412389793</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1069902379915403</v>
+        <v>0.1073222701039518</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01182121212116223</v>
+        <v>0.01184624993720173</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02985779069010002</v>
+        <v>0.02945415166117145</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02612557266592028</v>
+        <v>0.02532007785022606</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06222541063039898</v>
+        <v>0.06198909649276656</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05466150640043427</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08190224161634686</v>
+        <v>0.08190224161634684</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.00505640471539026</v>
@@ -1105,7 +1105,7 @@
         <v>0.02992507053738302</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04659069835095049</v>
+        <v>0.04659069835095048</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00215152665444999</v>
+        <v>0.002159582238911459</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00187245387863893</v>
+        <v>0.001887730733760249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007584583016041061</v>
+        <v>0.00759583034008901</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01611533605724157</v>
+        <v>0.0156882999643476</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03549587096913743</v>
+        <v>0.03484362864352181</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06815130766633416</v>
+        <v>0.06875128295887811</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001335705864812282</v>
+        <v>0.001278928287634349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.008505124267461951</v>
+        <v>0.008982796697399818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02080673596112495</v>
+        <v>0.02047020872747541</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03874329571169503</v>
+        <v>0.03856998252488714</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0184743428905061</v>
+        <v>0.01855344419129443</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009447718433814685</v>
+        <v>0.009384558187747308</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01601078674909682</v>
+        <v>0.0160597872586303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02336421481802289</v>
+        <v>0.02309475301115794</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01631831486875029</v>
+        <v>0.01373003866467803</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05057507727592309</v>
+        <v>0.05117246262761417</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07925382457529855</v>
+        <v>0.08011939325377383</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09768349232315418</v>
+        <v>0.09948786826024751</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01262837282388222</v>
+        <v>0.01156868228253353</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02478564686223865</v>
+        <v>0.02539720220039386</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04302543003566498</v>
+        <v>0.04281853187526203</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05555886540892965</v>
+        <v>0.05540473186739096</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.02464620776998331</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04902308416127287</v>
+        <v>0.04902308416127289</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002600519385862652</v>
+        <v>0.002612721566051767</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001179285705926745</v>
+        <v>0.001384595458105429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002412303119614323</v>
+        <v>0.002462357453938681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01018957757408363</v>
+        <v>0.01031778324321821</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.00347727009938308</v>
+        <v>0.003562796868256455</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02855878056880226</v>
+        <v>0.02827225798625825</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03769936673448751</v>
+        <v>0.03715500821150564</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07522214856212128</v>
+        <v>0.0756075246586482</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00360160995880719</v>
+        <v>0.003599361905897159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01596732767884268</v>
+        <v>0.0157851233255083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02080419826448065</v>
+        <v>0.02111975210252622</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04483627541467466</v>
+        <v>0.04480970497914776</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.007181258375062716</v>
+        <v>0.006986422281911676</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.004708077293702206</v>
+        <v>0.00471100511862008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006939985659676842</v>
+        <v>0.006952437825145237</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01811903225389171</v>
+        <v>0.01906358792824671</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.008981276516999578</v>
+        <v>0.008882984812834423</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04134346126396065</v>
+        <v>0.04079702622721979</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05218852534424843</v>
+        <v>0.05160327546994156</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09054012246995394</v>
+        <v>0.09107011931185752</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.007110100653096738</v>
+        <v>0.00699239109996843</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02237445401803458</v>
+        <v>0.02281073626941357</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02864674697768813</v>
+        <v>0.02858032022574218</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05359247336814865</v>
+        <v>0.05348296642044752</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>922</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3901</v>
+        <v>3494</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26906</v>
+        <v>27001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>38869</v>
+        <v>37314</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>40003</v>
+        <v>40270</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>898</v>
+        <v>1033</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>29749</v>
+        <v>29429</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>42952</v>
+        <v>43705</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46466</v>
+        <v>46337</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7600</v>
+        <v>8467</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7906</v>
+        <v>8280</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11834</v>
+        <v>11202</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21583</v>
+        <v>21575</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4881</v>
+        <v>4605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>51487</v>
+        <v>52288</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>68947</v>
+        <v>67194</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63026</v>
+        <v>62821</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8426</v>
+        <v>9075</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>56061</v>
+        <v>56615</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>72827</v>
+        <v>74039</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>74439</v>
+        <v>74906</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>934</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4179</v>
+        <v>4351</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2837</v>
+        <v>2875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22065</v>
+        <v>23599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>37592</v>
+        <v>37703</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>71968</v>
+        <v>70944</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5819</v>
+        <v>5917</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>26208</v>
+        <v>26022</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>41224</v>
+        <v>40974</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>79426</v>
+        <v>79099</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9362</v>
+        <v>9758</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9244</v>
+        <v>8278</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9754</v>
+        <v>9779</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15012</v>
+        <v>14973</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12941</v>
+        <v>13571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>48667</v>
+        <v>48108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>67868</v>
+        <v>68159</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>103084</v>
+        <v>100736</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>18856</v>
+        <v>18150</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>50666</v>
+        <v>51654</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>70013</v>
+        <v>71435</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>110266</v>
+        <v>110476</v>
       </c>
     </row>
     <row r="12">
@@ -1966,34 +1966,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9930</v>
+        <v>10285</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4799</v>
+        <v>4909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25621</v>
+        <v>25811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16824</v>
+        <v>17232</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>80060</v>
+        <v>79644</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8763</v>
+        <v>8933</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>26486</v>
+        <v>26847</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>19950</v>
+        <v>19339</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>94080</v>
+        <v>95220</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10550</v>
+        <v>10544</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6862</v>
+        <v>6002</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8116</v>
+        <v>8379</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25608</v>
+        <v>25549</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17774</v>
+        <v>18642</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49796</v>
+        <v>50475</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36428</v>
+        <v>38617</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>112047</v>
+        <v>112395</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24996</v>
+        <v>25049</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>52490</v>
+        <v>51781</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41666</v>
+        <v>40381</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>130284</v>
+        <v>129789</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7402</v>
+        <v>7413</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7266</v>
+        <v>7073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17382</v>
+        <v>17063</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>61925</v>
+        <v>62470</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1053</v>
+        <v>1008</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8113</v>
+        <v>8569</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20732</v>
+        <v>20396</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>73014</v>
+        <v>72688</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8262</v>
+        <v>8297</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4752</v>
+        <v>4721</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8113</v>
+        <v>8138</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22802</v>
+        <v>22539</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5567</v>
+        <v>4684</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22803</v>
+        <v>23072</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38810</v>
+        <v>39234</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>88759</v>
+        <v>90399</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9956</v>
+        <v>9120</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>23643</v>
+        <v>24226</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>42870</v>
+        <v>42664</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>104705</v>
+        <v>104414</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8399</v>
+        <v>8439</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4014</v>
+        <v>4713</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8123</v>
+        <v>8291</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>35473</v>
+        <v>35919</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11527</v>
+        <v>11811</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>100861</v>
+        <v>99849</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>132958</v>
+        <v>131038</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>277871</v>
+        <v>279295</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>23572</v>
+        <v>23557</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>110737</v>
+        <v>109474</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>143426</v>
+        <v>145601</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>321713</v>
+        <v>321523</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23194</v>
+        <v>22565</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16024</v>
+        <v>16034</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23369</v>
+        <v>23411</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>63077</v>
+        <v>66366</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29773</v>
+        <v>29447</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>146013</v>
+        <v>144083</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>184058</v>
+        <v>181994</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>334456</v>
+        <v>336414</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>46534</v>
+        <v>45764</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>155172</v>
+        <v>158198</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>197493</v>
+        <v>197035</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>384542</v>
+        <v>383756</v>
       </c>
     </row>
     <row r="24">
